--- a/Optimization Results/Optimization#1/Manual_Data_Collection.xlsx
+++ b/Optimization Results/Optimization#1/Manual_Data_Collection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ludwig.Qi\Desktop\POON Lab first analysis\Testing Single Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterfu/Desktop/MitoLength/Optimization Results/Optimization#1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52604881-134C-4B5F-A6BA-C05ACB7B015E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685E0B1F-F355-EC45-B32E-BEF07BD63364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{23984BBD-EEC9-4E49-9395-518618C783B1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{23984BBD-EEC9-4E49-9395-518618C783B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="7">
   <si>
     <t>Track</t>
   </si>
@@ -63,11 +63,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -93,13 +101,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -113,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -409,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8590BF14-BF5B-4857-8BA3-1D25DF0C810C}">
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:I258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="H258" sqref="H258"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -456,8 +476,16 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="b">
+        <f>OR(AND(C2="None",B2&lt;&gt;"None"),AND(B2="None",C2&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <f>OR(AND(E2="None",D2&lt;&gt;"None"),AND(D2="None",E2&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -476,8 +504,16 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="b">
+        <f t="shared" ref="G3:G66" si="0">OR(AND(C3="None",B3&lt;&gt;"None"),AND(B3="None",C3&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I66" si="1">OR(AND(E3="None",D3&lt;&gt;"None"),AND(D3="None",E3&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -496,8 +532,16 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -516,8 +560,16 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -536,8 +588,16 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -556,15 +616,23 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>7</v>
       </c>
       <c r="D8">
@@ -576,8 +644,16 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -596,8 +672,16 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -616,15 +700,23 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>5</v>
       </c>
       <c r="D11">
@@ -636,8 +728,16 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -656,8 +756,16 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -676,8 +784,16 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -696,8 +812,16 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -716,8 +840,16 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -736,15 +868,23 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>6</v>
       </c>
       <c r="D17">
@@ -756,8 +896,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -776,8 +924,16 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -796,8 +952,16 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -816,8 +980,16 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -836,8 +1008,16 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -856,8 +1036,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -876,8 +1064,16 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -896,8 +1092,16 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -916,8 +1120,16 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -936,8 +1148,16 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -947,8 +1167,8 @@
       <c r="C27">
         <v>26</v>
       </c>
-      <c r="D27">
-        <v>145</v>
+      <c r="D27" t="s">
+        <v>5</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -956,8 +1176,16 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -976,8 +1204,16 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -996,8 +1232,16 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1016,8 +1260,16 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1036,8 +1288,16 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1056,8 +1316,16 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1076,13 +1344,21 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>3</v>
+      <c r="B34" t="s">
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1096,8 +1372,16 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1116,8 +1400,16 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1136,8 +1428,16 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1156,8 +1456,16 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1176,8 +1484,16 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1196,13 +1512,21 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>123</v>
+      <c r="B40" t="s">
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1216,8 +1540,16 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1236,8 +1568,16 @@
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1256,8 +1596,16 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1276,15 +1624,23 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
         <v>3</v>
       </c>
       <c r="D44">
@@ -1296,8 +1652,16 @@
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1316,8 +1680,16 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1336,8 +1708,16 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1356,8 +1736,16 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1376,8 +1764,16 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1396,8 +1792,16 @@
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1416,8 +1820,16 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1436,8 +1848,16 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1456,15 +1876,23 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>31</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>36</v>
       </c>
       <c r="D53" t="s">
@@ -1476,8 +1904,16 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1496,8 +1932,16 @@
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1516,8 +1960,16 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1536,8 +1988,16 @@
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1556,8 +2016,16 @@
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1576,15 +2044,23 @@
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>13</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>18</v>
       </c>
       <c r="D59" t="s">
@@ -1596,8 +2072,16 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1616,8 +2100,16 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1636,8 +2128,16 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1647,17 +2147,25 @@
       <c r="C62">
         <v>41</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>142</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>146</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1676,8 +2184,16 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1696,8 +2212,16 @@
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1716,8 +2240,16 @@
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1736,8 +2268,16 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1756,8 +2296,16 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="b">
+        <f t="shared" ref="G67:G130" si="2">OR(AND(C67="None",B67&lt;&gt;"None"),AND(B67="None",C67&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
+        <f t="shared" ref="I67:I130" si="3">OR(AND(E67="None",D67&lt;&gt;"None"),AND(D67="None",E67&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1776,8 +2324,16 @@
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1796,8 +2352,16 @@
       <c r="F69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1816,8 +2380,16 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1836,8 +2408,16 @@
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1856,8 +2436,16 @@
       <c r="F72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1876,8 +2464,16 @@
       <c r="F73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1896,8 +2492,16 @@
       <c r="F74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1916,8 +2520,16 @@
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1936,8 +2548,16 @@
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1956,8 +2576,16 @@
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1976,8 +2604,16 @@
       <c r="F78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1996,8 +2632,16 @@
       <c r="F79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2016,8 +2660,16 @@
       <c r="F80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2036,8 +2688,16 @@
       <c r="F81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2056,8 +2716,16 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2076,8 +2744,16 @@
       <c r="F83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2096,8 +2772,16 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2116,8 +2800,16 @@
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2136,8 +2828,16 @@
       <c r="F86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2156,8 +2856,16 @@
       <c r="F87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2176,8 +2884,16 @@
       <c r="F88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2196,8 +2912,16 @@
       <c r="F89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2216,8 +2940,16 @@
       <c r="F90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2236,8 +2968,16 @@
       <c r="F91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2256,8 +2996,16 @@
       <c r="F92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2276,8 +3024,16 @@
       <c r="F93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2296,8 +3052,16 @@
       <c r="F94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2316,8 +3080,16 @@
       <c r="F95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2336,8 +3108,16 @@
       <c r="F96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2356,15 +3136,23 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98">
-        <v>142</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D98" t="s">
@@ -2376,8 +3164,16 @@
       <c r="F98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2396,8 +3192,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2416,15 +3220,23 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>70</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>73</v>
       </c>
       <c r="D101" t="s">
@@ -2436,8 +3248,16 @@
       <c r="F101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2456,8 +3276,16 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2476,8 +3304,16 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2496,8 +3332,16 @@
       <c r="F104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2516,8 +3360,16 @@
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2536,8 +3388,16 @@
       <c r="F106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2556,8 +3416,16 @@
       <c r="F107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2576,16 +3444,24 @@
       <c r="F108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
-      <c r="C109">
-        <v>40</v>
+      <c r="C109" t="s">
+        <v>5</v>
       </c>
       <c r="D109" t="s">
         <v>5</v>
@@ -2596,8 +3472,16 @@
       <c r="F109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -2616,8 +3500,16 @@
       <c r="F110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -2636,15 +3528,23 @@
       <c r="F111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112">
-        <v>143</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D112" t="s">
@@ -2656,8 +3556,16 @@
       <c r="F112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2676,8 +3584,16 @@
       <c r="F113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -2696,8 +3612,16 @@
       <c r="F114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -2716,8 +3640,16 @@
       <c r="F115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -2736,8 +3668,16 @@
       <c r="F116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -2756,8 +3696,16 @@
       <c r="F117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -2776,8 +3724,16 @@
       <c r="F118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -2796,8 +3752,16 @@
       <c r="F119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -2816,8 +3780,16 @@
       <c r="F120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -2836,8 +3808,16 @@
       <c r="F121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -2856,8 +3836,16 @@
       <c r="F122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -2876,8 +3864,16 @@
       <c r="F123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I123" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -2896,8 +3892,16 @@
       <c r="F124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I124" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -2916,8 +3920,16 @@
       <c r="F125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -2936,8 +3948,16 @@
       <c r="F126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I126" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -2956,8 +3976,16 @@
       <c r="F127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I127" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -2976,8 +4004,16 @@
       <c r="F128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I128" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -2996,15 +4032,23 @@
       <c r="F129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
-      <c r="B130">
-        <v>146</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D130" t="s">
@@ -3016,8 +4060,16 @@
       <c r="F130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I130" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3036,8 +4088,16 @@
       <c r="F131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" t="b">
+        <f t="shared" ref="G131:G194" si="4">OR(AND(C131="None",B131&lt;&gt;"None"),AND(B131="None",C131&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+      <c r="I131" t="b">
+        <f t="shared" ref="I131:I194" si="5">OR(AND(E131="None",D131&lt;&gt;"None"),AND(D131="None",E131&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3056,8 +4116,16 @@
       <c r="F132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I132" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -3076,8 +4144,16 @@
       <c r="F133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -3096,8 +4172,16 @@
       <c r="F134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I134" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -3116,8 +4200,16 @@
       <c r="F135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
@@ -3136,8 +4228,16 @@
       <c r="F136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
@@ -3156,8 +4256,16 @@
       <c r="F137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
@@ -3176,8 +4284,16 @@
       <c r="F138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -3196,8 +4312,16 @@
       <c r="F139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -3216,8 +4340,16 @@
       <c r="F140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I140" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -3236,8 +4368,16 @@
       <c r="F141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I141" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -3256,8 +4396,16 @@
       <c r="F142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -3276,8 +4424,16 @@
       <c r="F143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -3296,8 +4452,16 @@
       <c r="F144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
@@ -3316,8 +4480,16 @@
       <c r="F145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -3336,8 +4508,16 @@
       <c r="F146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I146" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
@@ -3356,8 +4536,16 @@
       <c r="F147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
@@ -3376,8 +4564,16 @@
       <c r="F148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
@@ -3396,8 +4592,16 @@
       <c r="F149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
@@ -3416,8 +4620,16 @@
       <c r="F150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -3436,8 +4648,16 @@
       <c r="F151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
@@ -3456,8 +4676,16 @@
       <c r="F152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
@@ -3476,8 +4704,16 @@
       <c r="F153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
@@ -3496,8 +4732,16 @@
       <c r="F154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
@@ -3516,8 +4760,16 @@
       <c r="F155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
@@ -3536,8 +4788,16 @@
       <c r="F156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
@@ -3556,8 +4816,16 @@
       <c r="F157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
@@ -3576,15 +4844,23 @@
       <c r="F158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
-      <c r="B159">
-        <v>144</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="B159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D159" t="s">
@@ -3596,8 +4872,16 @@
       <c r="F159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
@@ -3616,8 +4900,16 @@
       <c r="F160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -3636,8 +4928,16 @@
       <c r="F161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
@@ -3656,8 +4956,16 @@
       <c r="F162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
@@ -3676,8 +4984,16 @@
       <c r="F163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
@@ -3696,8 +5012,16 @@
       <c r="F164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
@@ -3716,8 +5040,16 @@
       <c r="F165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
@@ -3736,8 +5068,16 @@
       <c r="F166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
@@ -3756,8 +5096,16 @@
       <c r="F167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
@@ -3776,8 +5124,16 @@
       <c r="F168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
@@ -3796,8 +5152,16 @@
       <c r="F169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
@@ -3816,8 +5180,16 @@
       <c r="F170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
@@ -3836,8 +5208,16 @@
       <c r="F171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
@@ -3856,8 +5236,16 @@
       <c r="F172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
@@ -3876,8 +5264,16 @@
       <c r="F173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
@@ -3896,8 +5292,16 @@
       <c r="F174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
@@ -3916,8 +5320,16 @@
       <c r="F175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
@@ -3936,8 +5348,16 @@
       <c r="F176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
@@ -3956,8 +5376,16 @@
       <c r="F177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
@@ -3976,8 +5404,16 @@
       <c r="F178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
@@ -3996,8 +5432,16 @@
       <c r="F179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
@@ -4016,8 +5460,16 @@
       <c r="F180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I180" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
@@ -4036,8 +5488,16 @@
       <c r="F181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
@@ -4056,8 +5516,16 @@
       <c r="F182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I182" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
@@ -4076,8 +5544,16 @@
       <c r="F183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>182</v>
       </c>
@@ -4096,8 +5572,16 @@
       <c r="F184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
@@ -4116,8 +5600,16 @@
       <c r="F185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>184</v>
       </c>
@@ -4136,8 +5628,16 @@
       <c r="F186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I186" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>185</v>
       </c>
@@ -4156,8 +5656,16 @@
       <c r="F187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
@@ -4176,8 +5684,16 @@
       <c r="F188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
@@ -4196,8 +5712,16 @@
       <c r="F189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>188</v>
       </c>
@@ -4216,8 +5740,16 @@
       <c r="F190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I190" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>189</v>
       </c>
@@ -4236,8 +5768,16 @@
       <c r="F191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>190</v>
       </c>
@@ -4256,8 +5796,16 @@
       <c r="F192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>191</v>
       </c>
@@ -4276,8 +5824,16 @@
       <c r="F193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>192</v>
       </c>
@@ -4296,8 +5852,16 @@
       <c r="F194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>193</v>
       </c>
@@ -4316,8 +5880,16 @@
       <c r="F195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" t="b">
+        <f t="shared" ref="G195:G258" si="6">OR(AND(C195="None",B195&lt;&gt;"None"),AND(B195="None",C195&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+      <c r="I195" t="b">
+        <f t="shared" ref="I195:I258" si="7">OR(AND(E195="None",D195&lt;&gt;"None"),AND(D195="None",E195&lt;&gt;"None"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>194</v>
       </c>
@@ -4336,8 +5908,16 @@
       <c r="F196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>195</v>
       </c>
@@ -4356,8 +5936,16 @@
       <c r="F197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
@@ -4376,8 +5964,16 @@
       <c r="F198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>197</v>
       </c>
@@ -4396,8 +5992,16 @@
       <c r="F199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>198</v>
       </c>
@@ -4416,8 +6020,16 @@
       <c r="F200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
@@ -4436,8 +6048,16 @@
       <c r="F201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>200</v>
       </c>
@@ -4456,8 +6076,16 @@
       <c r="F202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>201</v>
       </c>
@@ -4476,8 +6104,16 @@
       <c r="F203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I203" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202</v>
       </c>
@@ -4496,8 +6132,16 @@
       <c r="F204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I204" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>203</v>
       </c>
@@ -4516,8 +6160,16 @@
       <c r="F205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I205" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>204</v>
       </c>
@@ -4536,8 +6188,16 @@
       <c r="F206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I206" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
@@ -4556,8 +6216,16 @@
       <c r="F207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I207" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>206</v>
       </c>
@@ -4576,8 +6244,16 @@
       <c r="F208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>207</v>
       </c>
@@ -4596,8 +6272,16 @@
       <c r="F209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I209" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
@@ -4616,8 +6300,16 @@
       <c r="F210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I210" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
@@ -4636,8 +6328,16 @@
       <c r="F211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I211" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>210</v>
       </c>
@@ -4656,8 +6356,16 @@
       <c r="F212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I212" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>211</v>
       </c>
@@ -4676,8 +6384,16 @@
       <c r="F213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I213" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>212</v>
       </c>
@@ -4696,8 +6412,16 @@
       <c r="F214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I214" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
@@ -4716,8 +6440,16 @@
       <c r="F215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I215" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>214</v>
       </c>
@@ -4736,8 +6468,16 @@
       <c r="F216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I216" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>215</v>
       </c>
@@ -4756,8 +6496,16 @@
       <c r="F217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I217" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>216</v>
       </c>
@@ -4776,8 +6524,16 @@
       <c r="F218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I218" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>217</v>
       </c>
@@ -4796,8 +6552,16 @@
       <c r="F219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I219" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>218</v>
       </c>
@@ -4816,8 +6580,16 @@
       <c r="F220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I220" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>219</v>
       </c>
@@ -4836,8 +6608,16 @@
       <c r="F221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I221" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>220</v>
       </c>
@@ -4856,8 +6636,16 @@
       <c r="F222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I222" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
@@ -4876,8 +6664,16 @@
       <c r="F223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I223" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>222</v>
       </c>
@@ -4896,8 +6692,16 @@
       <c r="F224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I224" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
@@ -4916,8 +6720,16 @@
       <c r="F225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I225" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>224</v>
       </c>
@@ -4936,8 +6748,16 @@
       <c r="F226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I226" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>225</v>
       </c>
@@ -4956,8 +6776,16 @@
       <c r="F227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I227" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
@@ -4976,8 +6804,16 @@
       <c r="F228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I228" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
@@ -4996,8 +6832,16 @@
       <c r="F229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I229" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>228</v>
       </c>
@@ -5016,8 +6860,16 @@
       <c r="F230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I230" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>229</v>
       </c>
@@ -5036,8 +6888,16 @@
       <c r="F231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G231" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I231" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>230</v>
       </c>
@@ -5056,8 +6916,16 @@
       <c r="F232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>231</v>
       </c>
@@ -5076,8 +6944,16 @@
       <c r="F233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I233" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>232</v>
       </c>
@@ -5096,8 +6972,16 @@
       <c r="F234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I234" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>233</v>
       </c>
@@ -5116,8 +7000,16 @@
       <c r="F235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G235" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I235" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>234</v>
       </c>
@@ -5136,8 +7028,16 @@
       <c r="F236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G236" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I236" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>235</v>
       </c>
@@ -5156,8 +7056,16 @@
       <c r="F237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I237" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>236</v>
       </c>
@@ -5176,8 +7084,16 @@
       <c r="F238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G238" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I238" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>237</v>
       </c>
@@ -5196,8 +7112,16 @@
       <c r="F239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I239" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>238</v>
       </c>
@@ -5216,8 +7140,16 @@
       <c r="F240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G240" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I240" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
@@ -5236,8 +7168,16 @@
       <c r="F241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I241" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>240</v>
       </c>
@@ -5256,8 +7196,16 @@
       <c r="F242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G242" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I242" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>241</v>
       </c>
@@ -5276,8 +7224,16 @@
       <c r="F243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I243" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>242</v>
       </c>
@@ -5296,8 +7252,16 @@
       <c r="F244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I244" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>243</v>
       </c>
@@ -5316,8 +7280,16 @@
       <c r="F245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I245" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>244</v>
       </c>
@@ -5336,8 +7308,16 @@
       <c r="F246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I246" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>245</v>
       </c>
@@ -5356,8 +7336,16 @@
       <c r="F247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I247" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>246</v>
       </c>
@@ -5376,8 +7364,16 @@
       <c r="F248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G248" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I248" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>247</v>
       </c>
@@ -5396,8 +7392,16 @@
       <c r="F249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I249" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>248</v>
       </c>
@@ -5416,8 +7420,16 @@
       <c r="F250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G250" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I250" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>249</v>
       </c>
@@ -5436,8 +7448,16 @@
       <c r="F251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G251" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I251" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>250</v>
       </c>
@@ -5456,8 +7476,16 @@
       <c r="F252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G252" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>251</v>
       </c>
@@ -5476,8 +7504,16 @@
       <c r="F253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G253" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I253" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>252</v>
       </c>
@@ -5496,8 +7532,16 @@
       <c r="F254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G254" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I254" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>253</v>
       </c>
@@ -5516,8 +7560,16 @@
       <c r="F255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G255" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I255" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>254</v>
       </c>
@@ -5536,8 +7588,16 @@
       <c r="F256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G256" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>255</v>
       </c>
@@ -5556,8 +7616,16 @@
       <c r="F257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G257" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I257" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>256</v>
       </c>
@@ -5576,8 +7644,21 @@
       <c r="F258">
         <v>1</v>
       </c>
+      <c r="G258" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>